--- a/NCAAFutures.xlsx
+++ b/NCAAFutures.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nels2\Documents\Python Scripts\NCAAF Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E995990-F7C4-4E9F-A814-DE72E9DAA76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC7286-3062-46BD-A8B8-D62546BBAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30EF1B93-B16B-4F13-83F3-FEAB78D5F7A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>Ohio State</t>
   </si>
@@ -195,6 +195,15 @@
   </si>
   <si>
     <t>TEAM</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
   </si>
 </sst>
 </file>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DE5BAF-1685-4E3F-848A-BA102176AB37}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" activeCellId="1" sqref="C16 C20"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +693,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>1.0004999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.99950000000000006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +759,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>1.0004999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.99950000000000006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,7 +781,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>1.0009999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,7 +803,7 @@
         <v>37</v>
       </c>
       <c r="C20">
-        <v>1.0004999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -956,7 +965,7 @@
         <v>20000</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -967,7 +976,7 @@
         <v>20000</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1033,7 +1042,7 @@
         <v>30000</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1044,7 +1053,7 @@
         <v>30000</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1136,6 +1145,556 @@
       </c>
       <c r="C51">
         <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>280</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>400</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>700</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>700</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1200</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1400</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1600</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1800</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2500</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3500</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3000</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3500</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5000</v>
+      </c>
+      <c r="B64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4000</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6000</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5000</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6000</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6000</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6600</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>12500</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>20000</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>12500</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>20000</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>25000</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>20000</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>20000</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>12500</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>20000</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>25000</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>40000</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>30000</v>
+      </c>
+      <c r="B82" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>30000</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>35000</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>30000</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>25000</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>40000</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>50000</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>30000</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>30000</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>40000</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>30000</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>60000</v>
+      </c>
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>40000</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>100000</v>
+      </c>
+      <c r="B95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>40000</v>
+      </c>
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>50000</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>35000</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>60000</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>40000</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>40000</v>
+      </c>
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/NCAAFutures.xlsx
+++ b/NCAAFutures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nels2\Documents\Python Scripts\NCAAF Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC7286-3062-46BD-A8B8-D62546BBAF78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3EEEBB-67C7-486D-B1F0-C817F82E46D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30EF1B93-B16B-4F13-83F3-FEAB78D5F7A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
   <si>
     <t>Ohio State</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Baylor</t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DE5BAF-1685-4E3F-848A-BA102176AB37}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,6 +1703,556 @@
         <v>2</v>
       </c>
     </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>280</v>
+      </c>
+      <c r="B102" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>400</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>500</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1800</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1200</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1400</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2500</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2000</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4000</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4000</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>5000</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4000</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>6600</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6000</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>12500</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>8000</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>8000</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>8000</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>15000</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>12500</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>20000</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>20000</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>25000</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>40000</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>20000</v>
+      </c>
+      <c r="B127" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>25000</v>
+      </c>
+      <c r="B128" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>30000</v>
+      </c>
+      <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>30000</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>50000</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>30000</v>
+      </c>
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>50000</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>30000</v>
+      </c>
+      <c r="B134" t="s">
+        <v>37</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>50000</v>
+      </c>
+      <c r="B135" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>25000</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>25000</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>40000</v>
+      </c>
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>40000</v>
+      </c>
+      <c r="B139" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>40000</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>100000</v>
+      </c>
+      <c r="B141" t="s">
+        <v>41</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>60000</v>
+      </c>
+      <c r="B142" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>40000</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>40000</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>50000</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>100000</v>
+      </c>
+      <c r="B146" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>50000</v>
+      </c>
+      <c r="B147" t="s">
+        <v>55</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>50000</v>
+      </c>
+      <c r="B148" t="s">
+        <v>26</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>100000</v>
+      </c>
+      <c r="B149" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>50000</v>
+      </c>
+      <c r="B150" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>50000</v>
+      </c>
+      <c r="B151" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
     <sortCondition ref="A2:A51"/>

--- a/NCAAFutures.xlsx
+++ b/NCAAFutures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nels2\Documents\Python Scripts\NCAAF Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3EEEBB-67C7-486D-B1F0-C817F82E46D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7808CC-1CA4-46E8-8C89-EB2A266F1E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30EF1B93-B16B-4F13-83F3-FEAB78D5F7A1}"/>
+    <workbookView xWindow="255" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{30EF1B93-B16B-4F13-83F3-FEAB78D5F7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="60">
   <si>
     <t>Ohio State</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>Baylor</t>
+  </si>
+  <si>
+    <t>UNLV</t>
+  </si>
+  <si>
+    <t>Washington State</t>
   </si>
 </sst>
 </file>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DE5BAF-1685-4E3F-848A-BA102176AB37}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,6 +2259,556 @@
         <v>3</v>
       </c>
     </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>320</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>350</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>500</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>900</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1100</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1200</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1600</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1800</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2000</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3000</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>4000</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>5000</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4000</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>4000</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>6000</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>6000</v>
+      </c>
+      <c r="B167" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>8000</v>
+      </c>
+      <c r="B168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>8000</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>12500</v>
+      </c>
+      <c r="B170" t="s">
+        <v>9</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>12500</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>15000</v>
+      </c>
+      <c r="B172" t="s">
+        <v>30</v>
+      </c>
+      <c r="C172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>15000</v>
+      </c>
+      <c r="B173" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>50000</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>40000</v>
+      </c>
+      <c r="B175" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>30000</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>50000</v>
+      </c>
+      <c r="B177" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>50000</v>
+      </c>
+      <c r="B178" t="s">
+        <v>32</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>30000</v>
+      </c>
+      <c r="B179" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>75000</v>
+      </c>
+      <c r="B180" t="s">
+        <v>47</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>50000</v>
+      </c>
+      <c r="B181" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>20000</v>
+      </c>
+      <c r="B182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>30000</v>
+      </c>
+      <c r="B183" t="s">
+        <v>46</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>30000</v>
+      </c>
+      <c r="B184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>50000</v>
+      </c>
+      <c r="B185" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>50000</v>
+      </c>
+      <c r="B186" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>50000</v>
+      </c>
+      <c r="B187" t="s">
+        <v>38</v>
+      </c>
+      <c r="C187">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>40000</v>
+      </c>
+      <c r="B188" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>30000</v>
+      </c>
+      <c r="B189" t="s">
+        <v>43</v>
+      </c>
+      <c r="C189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>50000</v>
+      </c>
+      <c r="B190" t="s">
+        <v>39</v>
+      </c>
+      <c r="C190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>100000</v>
+      </c>
+      <c r="B191" t="s">
+        <v>58</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>30000</v>
+      </c>
+      <c r="B192" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>40000</v>
+      </c>
+      <c r="B193" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>100000</v>
+      </c>
+      <c r="B194" t="s">
+        <v>59</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>100000</v>
+      </c>
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>100000</v>
+      </c>
+      <c r="B196" t="s">
+        <v>54</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>40000</v>
+      </c>
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>40000</v>
+      </c>
+      <c r="B198" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>75000</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>100000</v>
+      </c>
+      <c r="B200" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>50000</v>
+      </c>
+      <c r="B201" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
     <sortCondition ref="A2:A51"/>

--- a/NCAAFutures.xlsx
+++ b/NCAAFutures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nels2\Documents\Python Scripts\NCAAF Futures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7808CC-1CA4-46E8-8C89-EB2A266F1E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFACDA0F-C7EA-4BFD-8DF3-6F462879444B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="1110" windowWidth="21600" windowHeight="11295" xr2:uid="{30EF1B93-B16B-4F13-83F3-FEAB78D5F7A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30EF1B93-B16B-4F13-83F3-FEAB78D5F7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="68">
   <si>
     <t>Ohio State</t>
   </si>
@@ -216,6 +216,30 @@
   </si>
   <si>
     <t>Washington State</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Arizona State</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>Fresno State</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Texas State</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
   </si>
 </sst>
 </file>
@@ -587,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DE5BAF-1685-4E3F-848A-BA102176AB37}">
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,6 +2833,556 @@
         <v>4</v>
       </c>
     </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>340</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>360</v>
+      </c>
+      <c r="B203" t="s">
+        <v>49</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>500</v>
+      </c>
+      <c r="B204" t="s">
+        <v>2</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>800</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1000</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>1200</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>1200</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1800</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2000</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>4000</v>
+      </c>
+      <c r="B211" t="s">
+        <v>15</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>5000</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5000</v>
+      </c>
+      <c r="B213" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>5000</v>
+      </c>
+      <c r="B214" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5000</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5000</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>8000</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>12500</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>12500</v>
+      </c>
+      <c r="B219" t="s">
+        <v>9</v>
+      </c>
+      <c r="C219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>12500</v>
+      </c>
+      <c r="B220" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>12500</v>
+      </c>
+      <c r="B221" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>20000</v>
+      </c>
+      <c r="B222" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>25000</v>
+      </c>
+      <c r="B223" t="s">
+        <v>42</v>
+      </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>25000</v>
+      </c>
+      <c r="B224" t="s">
+        <v>34</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>30000</v>
+      </c>
+      <c r="B225" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>35000</v>
+      </c>
+      <c r="B226" t="s">
+        <v>20</v>
+      </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>30000</v>
+      </c>
+      <c r="B227" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>40000</v>
+      </c>
+      <c r="B228" t="s">
+        <v>27</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>40000</v>
+      </c>
+      <c r="B229" t="s">
+        <v>60</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>40000</v>
+      </c>
+      <c r="B230" t="s">
+        <v>26</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>50000</v>
+      </c>
+      <c r="B231" t="s">
+        <v>61</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>50000</v>
+      </c>
+      <c r="B232" t="s">
+        <v>37</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>50000</v>
+      </c>
+      <c r="B233" t="s">
+        <v>59</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>100000</v>
+      </c>
+      <c r="B234" t="s">
+        <v>62</v>
+      </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>100000</v>
+      </c>
+      <c r="B235" t="s">
+        <v>41</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>10000</v>
+      </c>
+      <c r="B236" t="s">
+        <v>63</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>50000</v>
+      </c>
+      <c r="B237" t="s">
+        <v>45</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>100000</v>
+      </c>
+      <c r="B238" t="s">
+        <v>58</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>40000</v>
+      </c>
+      <c r="B239" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>100000</v>
+      </c>
+      <c r="B240" t="s">
+        <v>64</v>
+      </c>
+      <c r="C240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>50000</v>
+      </c>
+      <c r="B241" t="s">
+        <v>55</v>
+      </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>40000</v>
+      </c>
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>100000</v>
+      </c>
+      <c r="B243" t="s">
+        <v>65</v>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>100000</v>
+      </c>
+      <c r="B244" t="s">
+        <v>32</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>150000</v>
+      </c>
+      <c r="B245" t="s">
+        <v>66</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>100000</v>
+      </c>
+      <c r="B246" t="s">
+        <v>24</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>50000</v>
+      </c>
+      <c r="B247" t="s">
+        <v>35</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>50000</v>
+      </c>
+      <c r="B248" t="s">
+        <v>38</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>50000</v>
+      </c>
+      <c r="B249" t="s">
+        <v>29</v>
+      </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>100000</v>
+      </c>
+      <c r="B250" t="s">
+        <v>67</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>50000</v>
+      </c>
+      <c r="B251" t="s">
+        <v>36</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
     <sortCondition ref="A2:A51"/>
